--- a/tests/043_simple_valid.xlsx
+++ b/tests/043_simple_valid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\PycharmProjects\VocExcel\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8046DF-83D0-4D48-9E02-77765DDB25B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AF10C1-B51F-4C5D-8C3D-9F39D20807AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="2865" windowWidth="28800" windowHeight="15435" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4005" yWindow="3435" windowWidth="28800" windowHeight="15435" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="105">
   <si>
     <t>Surround Australia Pty Ltd</t>
   </si>
@@ -1279,35 +1279,173 @@
     <t>CGI</t>
   </si>
   <si>
-    <t>http://example.org/vocabulary_iri</t>
+    <t>http://resource.geosciml.org/classifierscheme/cgi/2016.01/particletype</t>
   </si>
   <si>
-    <t>Example Title</t>
+    <t>Particle Type</t>
   </si>
   <si>
-    <t>Example Description</t>
+    <t>This vocabulary is used to specify particleType in particleTypeDescription associated with a compoundMaterial. Terms to specify the nature of individual particles of each constituent in an aggregation, based mostly on their genesis. Because the constituents are identifiable parts, the part units must have some definition. Examples include clasts, crystals, pore space, material fossil. Constituent type is determined based on the nature of the particles, and ideally is independent of the relationship between particles in a compound material aggregation.</t>
   </si>
   <si>
-    <t>Example Provenance</t>
+    <t>Original set of terms from the GeosciML standard</t>
   </si>
   <si>
-    <t>http://example/org/example1</t>
+    <t>Ollie Raymond</t>
   </si>
   <si>
-    <t>example preferred concept label</t>
+    <t>http://resource.geosciml.org/classifier/cgi/particletype/biogenic_particle</t>
   </si>
   <si>
-    <t>example concept definition</t>
+    <t>biogenic particle</t>
+  </si>
+  <si>
+    <t>eng</t>
+  </si>
+  <si>
+    <t>A type of granular particle formed by the physiological activities of organisms (plants, animals, protozoa) that produce body parts which subsequently are incorporated into a sediment aggregate. Contrast with nonbiogenic particle. Includes biogenic objects that are whole or fragmentary (bioclasts), can be fossilized or non-fossilized</t>
+  </si>
+  <si>
+    <t>one, two,three</t>
+  </si>
+  <si>
+    <t>http://resource.geosciml.org/classifier/cgi/particletype/bioclast,
+  http://resource.geosciml.org/classifier/cgi/particletype/coprolite,
+  http://resource.geosciml.org/classifier/cgi/particletype/fecal_pellet,
+  http://resource.geosciml.org/classifier/cgi/particletype/material_fossil</t>
+  </si>
+  <si>
+    <t>NADM SLTTs 2004</t>
+  </si>
+  <si>
+    <t>http://resource.geosciml.org/classifier/cgi/particletype/bleb</t>
+  </si>
+  <si>
+    <t>bleb</t>
+  </si>
+  <si>
+    <t>Generic term for a small rounded particle of uncertain origin</t>
+  </si>
+  <si>
+    <t>this vocabulary</t>
+  </si>
+  <si>
+    <t>http://resource.geosciml.org/classifier/cgi/particletype/cavity</t>
+  </si>
+  <si>
+    <t>cavity</t>
+  </si>
+  <si>
+    <t>Constituent is empty space between particles in a compound material, generally filled with some sort of fluid. Cavity particle types can be used to describe porosity in a granular material.</t>
+  </si>
+  <si>
+    <t>http://resource.geosciml.org/classifier/cgi/particletype/amygdule, 
+  http://resource.geosciml.org/classifier/cgi/particletype/fenestra,
+  http://resource.geosciml.org/classifier/cgi/particletype/fluid_inclusion,
+  http://resource.geosciml.org/classifier/cgi/particletype/lithophysae,
+  http://resource.geosciml.org/classifier/cgi/particletype/pore_space,
+  http://resource.geosciml.org/classifier/cgi/particletype/vesicle,
+  http://resource.geosciml.org/classifier/cgi/particletype/vug</t>
+  </si>
+  <si>
+    <t>http://resource.geosciml.org/classifier/cgi/particletype/bioclast</t>
+  </si>
+  <si>
+    <t>bioclast</t>
+  </si>
+  <si>
+    <t>Granular sedimentary particle that is a \\fragmentary piece of a shell, bone, or other hard skeletal structure of an animal, plant, or protozoan. May be fossilized or non-fossilized\\. Use in situations where fossil organism can not be identified, thus 'material fossil' is inappropriate.</t>
+  </si>
+  <si>
+    <t>http://resource.geosciml.org/classifier/cgi/particletype/vug</t>
+  </si>
+  <si>
+    <t>vug</t>
+  </si>
+  <si>
+    <t>Irregular cavity in rock, generic term with no connotation of origin of cavity. May be lined with crystals of different mineral compostion to the host rock</t>
+  </si>
+  <si>
+    <t>http://resource.geosciml.org/classifier/cgi/particletype/miarolitic_cavity</t>
+  </si>
+  <si>
+    <t>http://resource.geosciml.org/classifier/cgi/particletype</t>
+  </si>
+  <si>
+    <t>Particle Type - All Concepts</t>
+  </si>
+  <si>
+    <t>All Concepts in this vocabulary</t>
+  </si>
+  <si>
+    <t>http://resource.geosciml.org/classifier/cgi/particletype/accidental_pyroclastic_fragment,
+  http://resource.geosciml.org/classifier/cgi/particletype/aggregate_non-clastic_particle,
+  http://resource.geosciml.org/classifier/cgi/particletype/amygdule,
+  http://resource.geosciml.org/classifier/cgi/particletype/autoclast,
+  http://resource.geosciml.org/classifier/cgi/particletype/axiolite,
+  http://resource.geosciml.org/classifier/cgi/particletype/bioclast,
+  http://resource.geosciml.org/classifier/cgi/particletype/biogenic_particle,
+  http://resource.geosciml.org/classifier/cgi/particletype/bleb,
+  http://resource.geosciml.org/classifier/cgi/particletype/cavity,
+  http://resource.geosciml.org/classifier/cgi/particletype/coated_particle,
+  http://resource.geosciml.org/classifier/cgi/particletype/cognate_fragments,
+  http://resource.geosciml.org/classifier/cgi/particletype/concretionary_particle,
+  http://resource.geosciml.org/classifier/cgi/particletype/coprolite,
+  http://resource.geosciml.org/classifier/cgi/particletype/crystal_fragment,
+  http://resource.geosciml.org/classifier/cgi/particletype/crystalline_grain,
+  http://resource.geosciml.org/classifier/cgi/particletype/crystallite,
+  http://resource.geosciml.org/classifier/cgi/particletype/epiclast,
+  http://resource.geosciml.org/classifier/cgi/particletype/fecal_pellet,
+  http://resource.geosciml.org/classifier/cgi/particletype/fenestra,
+  http://resource.geosciml.org/classifier/cgi/particletype/fiamme,
+  http://resource.geosciml.org/classifier/cgi/particletype/fluid_inclusion,
+  http://resource.geosciml.org/classifier/cgi/particletype/fluidal_pyroclast,
+  http://resource.geosciml.org/classifier/cgi/particletype/glomerocryst,
+  http://resource.geosciml.org/classifier/cgi/particletype/granular_particle,
+  http://resource.geosciml.org/classifier/cgi/particletype/holoblast,
+  http://resource.geosciml.org/classifier/cgi/particletype/hydroclast,
+  http://resource.geosciml.org/classifier/cgi/particletype/hydrothermal_vein,
+  http://resource.geosciml.org/classifier/cgi/particletype/igneous_inclusion,
+  http://resource.geosciml.org/classifier/cgi/particletype/igneous_vein,http://resource.geosciml.org/classifier/cgi/particletype/intraclast,
+  http://resource.geosciml.org/classifier/cgi/particletype/intrusive_sheet,
+  http://resource.geosciml.org/classifier/cgi/particletype/juvenile_pyroclastic_fragment,
+  http://resource.geosciml.org/classifier/cgi/particletype/lithic_clast,
+  http://resource.geosciml.org/classifier/cgi/particletype/lithoclast,
+  http://resource.geosciml.org/classifier/cgi/particletype/lithophysae,
+  http://resource.geosciml.org/classifier/cgi/particletype/material_fossil,
+  http://resource.geosciml.org/classifier/cgi/particletype/miarolitic_cavity,
+  http://resource.geosciml.org/classifier/cgi/particletype/microlite,
+  http://resource.geosciml.org/classifier/cgi/particletype/mineral_clast,
+  http://resource.geosciml.org/classifier/cgi/particletype/nodule,
+  http://resource.geosciml.org/classifier/cgi/particletype/oncoid,
+  http://resource.geosciml.org/classifier/cgi/particletype/ooid,
+  http://resource.geosciml.org/classifier/cgi/particletype/orb,
+  http://resource.geosciml.org/classifier/cgi/particletype/paleoblast,
+  http://resource.geosciml.org/classifier/cgi/particletype/paramorph,
+  http://resource.geosciml.org/classifier/cgi/particletype/peloid,
+  http://resource.geosciml.org/classifier/cgi/particletype/pisoid,
+  http://resource.geosciml.org/classifier/cgi/particletype/pore_space,
+  http://resource.geosciml.org/classifier/cgi/particletype/pseudomorph,
+  http://resource.geosciml.org/classifier/cgi/particletype/pyroclast,
+  http://resource.geosciml.org/classifier/cgi/particletype/reworked_pyroclastic_fragment,
+  http://resource.geosciml.org/classifier/cgi/particletype/schlieren,
+  http://resource.geosciml.org/classifier/cgi/particletype/shard,
+  http://resource.geosciml.org/classifier/cgi/particletype/solid_constituent_particle,
+  http://resource.geosciml.org/classifier/cgi/particletype/spherule,
+  http://resource.geosciml.org/classifier/cgi/particletype/syngenetic_nodule,
+  http://resource.geosciml.org/classifier/cgi/particletype/syngenetic_particle,
+  http://resource.geosciml.org/classifier/cgi/particletype/variole,
+  http://resource.geosciml.org/classifier/cgi/particletype/ventrifact,
+  http://resource.geosciml.org/classifier/cgi/particletype/vesicle,
+  http://resource.geosciml.org/classifier/cgi/particletype/vug,
+  http://resource.geosciml.org/classifier/cgi/particletype/xenocryst</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-  </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1444,12 +1582,6 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <u/>
-      <sz val="9"/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1501,7 +1633,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1599,17 +1731,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -16210,8 +16336,8 @@
   </sheetPr>
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B12"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B1000" sqref="B1000"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -16249,7 +16375,7 @@
       <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="38" t="s">
         <v>75</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -16263,7 +16389,7 @@
       <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="38" t="s">
         <v>76</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -16278,7 +16404,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="38">
-        <v>44627</v>
+        <v>40008</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>26</v>
@@ -16292,7 +16418,7 @@
         <v>28</v>
       </c>
       <c r="B6" s="38">
-        <v>44627</v>
+        <v>44005</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>29</v>
@@ -16305,7 +16431,7 @@
       <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="38" t="s">
         <v>73</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -16319,7 +16445,7 @@
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="38" t="s">
         <v>73</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -16333,7 +16459,9 @@
       <c r="A9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="20"/>
+      <c r="B9" s="38">
+        <v>2016.01</v>
+      </c>
       <c r="C9" s="6" t="s">
         <v>35</v>
       </c>
@@ -16345,7 +16473,7 @@
       <c r="A10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="38" t="s">
         <v>77</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -16359,7 +16487,9 @@
       <c r="A11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="20"/>
+      <c r="B11" s="38" t="s">
+        <v>78</v>
+      </c>
       <c r="C11" s="6" t="s">
         <v>40</v>
       </c>
@@ -19350,7 +19480,7 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{55E9464F-AF5C-4042-9A7A-292D0EAE17A5}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{10D4B2C8-DF54-4F46-80CD-75C759947EBB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId2"/>
@@ -19364,8 +19494,8 @@
   </sheetPr>
   <dimension ref="A1:AC500"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="AD3" sqref="AD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -19464,64 +19594,114 @@
       <c r="AB2" s="9"/>
       <c r="AC2" s="9"/>
     </row>
-    <row r="3" spans="1:29" ht="36" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="40" t="s">
+    <row r="3" spans="1:29" ht="144" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40" t="s">
+      <c r="B3" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-    </row>
-    <row r="4" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="21"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
+      <c r="C3" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" s="22"/>
+    </row>
+    <row r="4" spans="1:29" ht="24" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>88</v>
+      </c>
       <c r="E4" s="22"/>
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
+      <c r="H4" s="22" t="s">
+        <v>89</v>
+      </c>
       <c r="I4" s="22"/>
     </row>
-    <row r="5" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+    <row r="5" spans="1:29" ht="264" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>92</v>
+      </c>
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
+      <c r="G5" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>89</v>
+      </c>
       <c r="I5" s="22"/>
     </row>
-    <row r="6" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
+    <row r="6" spans="1:29" ht="96" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>96</v>
+      </c>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
+      <c r="H6" s="22" t="s">
+        <v>85</v>
+      </c>
       <c r="I6" s="22"/>
     </row>
-    <row r="7" spans="1:29" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
+    <row r="7" spans="1:29" ht="48" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>99</v>
+      </c>
       <c r="E7" s="22"/>
       <c r="F7" s="22"/>
-      <c r="G7" s="21"/>
+      <c r="G7" s="21" t="s">
+        <v>100</v>
+      </c>
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
     </row>
@@ -24953,10 +25133,15 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{C9C80C3E-D997-4B31-B9DD-4EF5BAC3A4B5}"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{C0D52D45-658C-4008-BA41-48DF3835BBC6}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{A991AEFB-7C02-4F7B-AF80-D0C8E15D8529}"/>
+    <hyperlink ref="A5" r:id="rId3" xr:uid="{716D863E-50FD-4FC7-8E5D-CD8E6A70F39F}"/>
+    <hyperlink ref="A6" r:id="rId4" xr:uid="{E946C98C-AAAB-4156-A725-6D598222980E}"/>
+    <hyperlink ref="A7" r:id="rId5" xr:uid="{5B505861-0F86-4357-9265-26DB41A30F4D}"/>
+    <hyperlink ref="G7" r:id="rId6" xr:uid="{2D2EBFAA-76D7-44E4-919F-2C353C18B3D8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -25050,10 +25235,10 @@
       <c r="Z2" s="9"/>
       <c r="AA2" s="9"/>
     </row>
-    <row r="3" spans="1:27" ht="24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A3,Concepts!A3:A500,1), "")</f>
-        <v>http://example/org/example1</v>
+        <v>http://resource.geosciml.org/classifier/cgi/particletype/biogenic_particle</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -25061,10 +25246,10 @@
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:27" ht="24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A4,Concepts!A4:A500,1), "")</f>
-        <v/>
+        <v>http://resource.geosciml.org/classifier/cgi/particletype/bleb</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -25072,10 +25257,10 @@
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:27" ht="24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A5,Concepts!A5:A500,1), "")</f>
-        <v/>
+        <v>http://resource.geosciml.org/classifier/cgi/particletype/cavity</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -25083,10 +25268,10 @@
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:27" ht="24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A6,Concepts!A6:A500,1), "")</f>
-        <v/>
+        <v>http://resource.geosciml.org/classifier/cgi/particletype/bioclast</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -25094,10 +25279,10 @@
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:27" ht="24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="str">
         <f>IFERROR(HLOOKUP(Concepts!A7,Concepts!A7:A500,1), "")</f>
-        <v/>
+        <v>http://resource.geosciml.org/classifier/cgi/particletype/vug</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -30548,8 +30733,8 @@
   </sheetPr>
   <dimension ref="A1:Z199"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="AA3" sqref="AA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -30630,12 +30815,22 @@
       <c r="Y2" s="9"/>
       <c r="Z2" s="9"/>
     </row>
-    <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="21"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
+    <row r="3" spans="1:26" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
@@ -32013,6 +32208,9 @@
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{AA17702E-31DF-4B60-BC04-B05228ABB734}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
